--- a/montreal/ckan/dataset/20240814/error_download.xlsx
+++ b/montreal/ckan/dataset/20240814/error_download.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>url</t>
   </si>
@@ -46,9 +46,18 @@
     <t>https://donnees.montreal.ca/dataset/62eafbaf-e591-408a-8700-807934092a67/resource/ab8f1b8f-84d4-47c5-970b-c5f3047a9f09/download/2020-08.csv</t>
   </si>
   <si>
+    <t>https://servicesenligne2.ville.montreal.qc.ca/api/infoneige/InfoneigeWebService?WSDL</t>
+  </si>
+  <si>
+    <t>https://servicesenligne2.ville.montreal.qc.ca/api/infoneige/sim/InfoneigeWebService?wsdl</t>
+  </si>
+  <si>
     <t>https://donnees.montreal.ca/dataset/6d080ad9-3823-4bfd-8c61-32594f11bc83/resource/1fa7a8db-2554-440a-9a5a-53c16b5d3995/download/programmation-culturelle-estivale-2020.csv</t>
   </si>
   <si>
+    <t>https://donnees.montreal.ca/dataset/5866f832-676d-4b07-be6a-e99c21eb17e4/resource/8c95d208-2812-4bda-a99c-b9979dfab86b/download/requete311_2022-202408.csv</t>
+  </si>
+  <si>
     <t>https://donnees.montreal.ca/dataset/157bdb1a-5580-46d4-8980-5e1d5f6f9082/resource/9850b9a1-d37d-40a3-a783-dcc852db0957/download/2021-rapport-annuel-de-reddition.pdf</t>
   </si>
   <si>
@@ -88,12 +97,12 @@
     <t>gouvernement-finances</t>
   </si>
   <si>
+    <t>infrastructures</t>
+  </si>
+  <si>
     <t>societe-culture</t>
   </si>
   <si>
-    <t>infrastructures</t>
-  </si>
-  <si>
     <t>budget-participatif-montreal</t>
   </si>
   <si>
@@ -109,7 +118,13 @@
     <t>contrats-octroyes-par-les-fonctionnaires-2020</t>
   </si>
   <si>
+    <t>deneigement</t>
+  </si>
+  <si>
     <t>programmation-culturelle-vas</t>
+  </si>
+  <si>
+    <t>requete-311</t>
   </si>
   <si>
     <t>reseau-311-reddition-performance</t>
@@ -498,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,13 +547,13 @@
         <v>404</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -552,13 +567,13 @@
         <v>404</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -572,13 +587,13 @@
         <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -592,13 +607,13 @@
         <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -612,13 +627,13 @@
         <v>404</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -629,16 +644,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -649,16 +664,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>404</v>
+        <v>520</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -672,13 +687,13 @@
         <v>404</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -692,13 +707,13 @@
         <v>404</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -712,13 +727,13 @@
         <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -732,13 +747,13 @@
         <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -752,13 +767,13 @@
         <v>404</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -772,13 +787,13 @@
         <v>404</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -792,13 +807,13 @@
         <v>404</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -812,13 +827,73 @@
         <v>404</v>
       </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>404</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
+      <c r="C18">
+        <v>404</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>404</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -838,6 +913,9 @@
     <hyperlink ref="B14" r:id="rId13"/>
     <hyperlink ref="B15" r:id="rId14"/>
     <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
